--- a/laba1/1.xlsx
+++ b/laba1/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\dasha\sem4\laba1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E17B71B-7C40-40DC-A097-11F4A6196D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52B8C2-17B2-4B3E-85F9-B18690A90CAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{DBC42ABA-5965-4579-A3C1-A867977BB374}"/>
   </bookViews>
@@ -238,40 +238,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.1</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2999999999999998</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,40 +283,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.07</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.88</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.61</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.34</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.17</c:v>
+                  <c:v>3.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8899999999999997</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.3099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.41</c:v>
+                  <c:v>4.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.12</c:v>
+                  <c:v>5.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.91</c:v>
+                  <c:v>5.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.65</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.47</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,40 +588,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.1</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2999999999999998</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,40 +633,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.9859370678700001</c:v>
+                  <c:v>1.5628272061000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8915108461900001</c:v>
+                  <c:v>1.9927676875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7118998987500005</c:v>
+                  <c:v>2.4357950849000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4659154025100003</c:v>
+                  <c:v>2.8897726447000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1723685344300003</c:v>
+                  <c:v>3.3525636133000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8500704714700005</c:v>
+                  <c:v>3.8220312371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5178323905900006</c:v>
+                  <c:v>4.2960387625000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1944654687500007</c:v>
+                  <c:v>4.7724494359000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8987808829100006</c:v>
+                  <c:v>5.2491265036999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6495898100300006</c:v>
+                  <c:v>5.7239332123000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4657034270700007</c:v>
+                  <c:v>6.1947328081000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3659329109900002</c:v>
+                  <c:v>6.6593885374999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B510CDC-6F75-4412-9C32-DDC3764AF7B3}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2339,34 +2339,34 @@
     <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
-        <v>-3.1</v>
+        <v>-0.7</v>
       </c>
       <c r="B2" s="2">
-        <v>6.07</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
-        <v>-2.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="B3" s="4">
-        <v>5.88</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B4" s="4">
-        <v>5.61</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="B5" s="4">
-        <v>5.34</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -2374,100 +2374,100 @@
         <v>0.1</v>
       </c>
       <c r="B6" s="4">
-        <v>5.17</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B7" s="4">
-        <v>4.8899999999999997</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="B8" s="4">
-        <v>4.6500000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="B9" s="4">
-        <v>4.41</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="B10" s="4">
-        <v>4.12</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="4">
-        <v>2.91</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
-        <v>4.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="B12" s="4">
-        <v>3.65</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="B13" s="4">
-        <v>3.47</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
-        <v>-3.1</v>
+        <v>-0.7</v>
       </c>
       <c r="B17">
-        <f>0.00612343*A17*A17*A17-0.0242989*A17*A17-0.384146*A17+5.21102</f>
-        <v>5.9859370678700001</v>
+        <f>-0.0445157*A17*A17*A17+0.0968129*A17*A17+2.3144*A17+3.1202</f>
+        <v>1.5628272061000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
-        <v>-2.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B28" si="0">0.00612343*A18*A18*A18-0.0242989*A18*A18-0.384146*A18+5.21102</f>
-        <v>5.8915108461900001</v>
+        <f t="shared" ref="B18:B28" si="0">-0.0445157*A18*A18*A18+0.0968129*A18*A18+2.3144*A18+3.1202</f>
+        <v>1.9927676875</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>5.7118998987500005</v>
+        <v>2.4357950849000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5.4659154025100003</v>
+        <v>2.8897726447000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -2476,70 +2476,70 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>5.1723685344300003</v>
+        <v>3.3525636133000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>4.8500704714700005</v>
+        <v>3.8220312371</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>4.5178323905900006</v>
+        <v>4.2960387625000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>4.1944654687500007</v>
+        <v>4.7724494359000005</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.8987808829100006</v>
+        <v>5.2491265036999994</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3.6495898100300006</v>
+        <v>5.7239332123000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
-        <v>4.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3.4657034270700007</v>
+        <v>6.1947328081000004</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3.3659329109900002</v>
+        <v>6.6593885374999999</v>
       </c>
     </row>
   </sheetData>
